--- a/Excel/ErrorCfg@c.xlsx
+++ b/Excel/ErrorCfg@c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorCode" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,25 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -55,7 +68,10 @@
     <t>CantFindCfg</t>
   </si>
   <si>
-    <t>InputInvaid</t>
+    <t>InputInvalid</t>
+  </si>
+  <si>
+    <t>LoginError</t>
   </si>
   <si>
     <t>#登录</t>
@@ -131,12 +147,18 @@
   </si>
   <si>
     <t>EquipIsPut</t>
+  </si>
+  <si>
+    <t>#地图</t>
+  </si>
+  <si>
+    <t>CantFindMap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -763,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,18 +794,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -910,91 +925,91 @@
             <v>输入参数有误</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="C11">
-            <v>104101</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>其他人登录</v>
+        <row r="10">
+          <cell r="C10">
+            <v>104005</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>服务器逻辑超时</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>104102</v>
+            <v>104101</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>其他人登录</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
-            <v>104103</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>没有该玩家</v>
+            <v>104102</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
-            <v>104104</v>
+            <v>104103</v>
           </cell>
           <cell r="D14" t="str">
-            <v>进入游戏出错</v>
+            <v>没有该玩家</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
-            <v>104105</v>
+            <v>104104</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>进入游戏出错</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16">
-            <v>104106</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>玩家名字重复</v>
+            <v>104105</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17">
+            <v>104106</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>玩家名字重复</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
             <v>104107</v>
           </cell>
-          <cell r="D17" t="str">
+          <cell r="D18" t="str">
             <v>角色不存在</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>104111</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>任务未完成</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20">
-            <v>104112</v>
+            <v>104111</v>
           </cell>
           <cell r="D20" t="str">
-            <v>任务已提交</v>
+            <v>任务未完成</v>
           </cell>
         </row>
         <row r="21">
           <cell r="C21">
+            <v>104112</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>任务已提交</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
             <v>104113</v>
           </cell>
-          <cell r="D21" t="str">
+          <cell r="D22" t="str">
             <v>任务已超时</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>104121</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>道具不足</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>104122</v>
+            <v>104121</v>
           </cell>
           <cell r="D24" t="str">
             <v>道具不足</v>
@@ -1002,7 +1017,7 @@
         </row>
         <row r="25">
           <cell r="C25">
-            <v>104123</v>
+            <v>104122</v>
           </cell>
           <cell r="D25" t="str">
             <v>道具不足</v>
@@ -1010,7 +1025,7 @@
         </row>
         <row r="26">
           <cell r="C26">
-            <v>104124</v>
+            <v>104123</v>
           </cell>
           <cell r="D26" t="str">
             <v>道具不足</v>
@@ -1018,7 +1033,7 @@
         </row>
         <row r="27">
           <cell r="C27">
-            <v>104125</v>
+            <v>104124</v>
           </cell>
           <cell r="D27" t="str">
             <v>道具不足</v>
@@ -1026,57 +1041,65 @@
         </row>
         <row r="28">
           <cell r="C28">
-            <v>104126</v>
+            <v>104125</v>
           </cell>
           <cell r="D28" t="str">
             <v>道具不足</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="C30">
-            <v>104131</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>找不到讨论组</v>
+        <row r="29">
+          <cell r="C29">
+            <v>104126</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>道具不足</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
+            <v>104131</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>找不到讨论组</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
             <v>104132</v>
           </cell>
-          <cell r="D31" t="str">
+          <cell r="D32" t="str">
             <v>讨论组已存在</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>104141</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>执行GS命令出错</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
+            <v>104141</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>执行GS命令出错</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
             <v>104142</v>
           </cell>
-          <cell r="D34" t="str">
+          <cell r="D35" t="str">
             <v>没有找到GS命令</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>104151</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>对象已死亡</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
+            <v>104151</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>对象已死亡</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
             <v>104161</v>
           </cell>
-          <cell r="D37" t="str">
+          <cell r="D38" t="str">
             <v>该装备正在穿戴中</v>
           </cell>
         </row>
@@ -1373,10 +1396,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1385,7 +1408,7 @@
     <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
@@ -1399,42 +1422,42 @@
       </c>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="1">
@@ -1496,199 +1519,199 @@
         <v>输入参数有误</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2" t="s">
+    <row r="10" s="1" customFormat="1" spans="3:6">
+      <c r="C10" s="1">
+        <v>200005</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="3">
-        <v>200101</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E10" s="1">
+        <v>104005</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>服务器逻辑超时</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1">
-        <v>104101</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>其他人登录</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="3">
-        <v>200102</v>
+        <v>200101</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1">
-        <v>104102</v>
-      </c>
-      <c r="F12" s="1">
-        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>0</v>
+        <v>104101</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>其他人登录</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="3">
-        <v>200103</v>
+        <v>200102</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="1">
-        <v>104103</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>没有该玩家</v>
+        <v>104102</v>
+      </c>
+      <c r="F13" s="1">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" s="3">
-        <v>200104</v>
+        <v>200103</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>104104</v>
+        <v>104103</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>进入游戏出错</v>
+        <v>没有该玩家</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" s="3">
-        <v>200105</v>
+        <v>200104</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>104105</v>
-      </c>
-      <c r="F15" s="1">
-        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>0</v>
+        <v>104104</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>进入游戏出错</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" s="3">
-        <v>200106</v>
+        <v>200105</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="1">
-        <v>104106</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>玩家名字重复</v>
+        <v>104105</v>
+      </c>
+      <c r="F16" s="1">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="3">
-        <v>200107</v>
+        <v>200106</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1">
+        <v>104106</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>玩家名字重复</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="3">
+        <v>200107</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1">
         <v>104107</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F18" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
         <v>角色不存在</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="3">
-        <v>200201</v>
-      </c>
-      <c r="D19" s="3" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="3">
-        <v>104111</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>任务未完成</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="3">
-        <v>200202</v>
+        <v>200201</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="3">
-        <v>104112</v>
+        <v>104111</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>任务已提交</v>
+        <v>任务未完成</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="3">
-        <v>200203</v>
+        <v>200202</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="3">
+        <v>104112</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>任务已提交</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="3">
+        <v>200203</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
         <v>104113</v>
       </c>
-      <c r="F21" s="1" t="str">
+      <c r="F22" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
         <v>任务已超时</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="3">
-        <v>200301</v>
-      </c>
-      <c r="D23" s="3" t="s">
+    <row r="23" spans="2:6">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="3">
-        <v>104121</v>
-      </c>
-      <c r="F23" s="1" t="str">
-        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>道具不足</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="3">
-        <v>200302</v>
+        <v>200301</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="3">
-        <v>104122</v>
+        <v>104121</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
@@ -1697,10 +1720,13 @@
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="3">
-        <v>200303</v>
+        <v>200302</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E25" s="3">
-        <v>104123</v>
+        <v>104122</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
@@ -1709,10 +1735,10 @@
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="3">
-        <v>200304</v>
+        <v>200303</v>
       </c>
       <c r="E26" s="3">
-        <v>104124</v>
+        <v>104123</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
@@ -1721,10 +1747,10 @@
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="3">
-        <v>200305</v>
+        <v>200304</v>
       </c>
       <c r="E27" s="3">
-        <v>104125</v>
+        <v>104124</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
@@ -1733,130 +1759,160 @@
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="3">
+        <v>200305</v>
+      </c>
+      <c r="E28" s="3">
+        <v>104125</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>道具不足</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="3">
         <v>200306</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <v>104126</v>
       </c>
-      <c r="F28" s="1" t="str">
+      <c r="F29" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
         <v>道具不足</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="3">
-        <v>200401</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    <row r="30" spans="2:6">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="3">
-        <v>104131</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>找不到讨论组</v>
-      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="3">
-        <v>200402</v>
+        <v>200401</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="3">
+        <v>104131</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>找不到讨论组</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="3">
+        <v>200402</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3">
         <v>104132</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="F32" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
         <v>讨论组已存在</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="3">
-        <v>200501</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="3">
-        <v>104141</v>
-      </c>
-      <c r="F33" s="1" t="str">
-        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
-        <v>执行GS命令出错</v>
-      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="3">
-        <v>200502</v>
+        <v>200501</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="3">
+        <v>104141</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>执行GS命令出错</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="3">
+        <v>200502</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3">
         <v>104142</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F35" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
         <v>没有找到GS命令</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="3">
+    <row r="36" spans="2:6">
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="3">
         <v>200601</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="3">
         <v>104151</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F37" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
         <v>对象已死亡</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="3">
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="3">
         <v>200701</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3">
         <v>104161</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F39" s="1" t="str">
         <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
         <v>该装备正在穿戴中</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3">
+        <v>200801</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3">
+        <v>104171</v>
+      </c>
+      <c r="F40" s="1" t="e">
+        <f>VLOOKUP(E:E,[1]Error!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
